--- a/Documentacao.xlsx
+++ b/Documentacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desafio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC01E22B-D687-462A-96BE-CB3D221B9C6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991056E0-AB42-457C-9771-DBE592BEBAD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{830FFEE1-6D90-4F9C-9690-811F7D43C830}"/>
   </bookViews>
@@ -2008,7 +2008,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
